--- a/Metodos numericos/parcial2/Newton Raphson.xlsx
+++ b/Metodos numericos/parcial2/Newton Raphson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Sem4\Sem4ULSA\Metodos numericos\parcial2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65494C-AEEF-4B21-A42E-C619743C4C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA470722-AE46-4A70-8189-D0ECA6D3690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{721BABC6-5491-46A4-B4BA-3C4F68E5E618}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>2nda derivada:</t>
   </si>
@@ -61,6 +61,15 @@
   <si>
     <t>i</t>
   </si>
+  <si>
+    <t>Comprobacion</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t>Referencia:</t>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +134,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -154,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -179,6 +212,14 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,8 +469,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -565,6 +607,374 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$24:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$24:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1585290151921035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0122340540072643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0129733550096462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.0907025731743181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.2132508684527856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.3618423648515323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.5242281618472484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7.6919282576369552</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.8588799919401335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.020683531529583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2577-473E-963C-43F45B16B1B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="332760320"/>
+        <c:axId val="726957392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="332760320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726957392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="726957392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="332760320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -602,7 +1012,585 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1200,15 +2188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>603790</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>164340</xdr:rowOff>
+      <xdr:colOff>596290</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>320211</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:colOff>312711</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1288,13 +2276,93 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C482D91-B5D2-C95B-4862-7FEE8E0F697B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>96320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>322384</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>43905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1FAA8D-AD92-ACCD-6EC2-4B9CDEDBEAAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10894887" y="3135759"/>
+          <a:ext cx="3886233" cy="5769607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1332,7 +2400,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1438,7 +2506,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1580,7 +2648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1588,14 +2656,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78077EB7-1996-48CF-939C-69F1030DF3FF}">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1860,6 +2929,274 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <f>SIN(SQRT(B21))-B21</f>
+        <v>-0.1585290151921035</v>
+      </c>
+      <c r="B24" s="10">
+        <f>-(SIN(SQRT(B21))/4*B21)-(COS(SQRT(B21))/(4*(B21^1.5)))</f>
+        <v>-0.34544332266900907</v>
+      </c>
+      <c r="C24" s="10">
+        <f>A24*B24</f>
+        <v>5.4762789747406046E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SIN(SQRT(F24))-F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" ref="G25:G34" si="4">SIN(SQRT(F25))-F25</f>
+        <v>-0.1585290151921035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10">
+        <v>2</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.0122340540072643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="F27" s="10">
+        <v>3</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.0129733550096462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10">
+        <f>B27-(((SIN(SQRT(B27))-B27)/((COS(SQRT(B27)))/(2*(SQRT(B27)))-1)))</f>
+        <v>0.78279199065750804</v>
+      </c>
+      <c r="C28" s="11">
+        <f>(B28-B27)/B28</f>
+        <v>-0.27747857915619134</v>
+      </c>
+      <c r="F28" s="10">
+        <v>4</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="4"/>
+        <v>-3.0907025731743181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>2</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" ref="B29:B37" si="5">B28-(((SIN(SQRT(B28))-B28)/((COS(SQRT(B28)))/(2*(SQRT(B28)))-1)))</f>
+        <v>0.76872356807973075</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" ref="C29:C37" si="6">(B29-B28)/B29</f>
+        <v>-1.8301016336626928E-2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>5</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="4"/>
+        <v>-4.2132508684527856</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" si="5"/>
+        <v>0.76864885890174284</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="6"/>
+        <v>-9.7195458137612977E-5</v>
+      </c>
+      <c r="F30" s="10">
+        <v>6</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="4"/>
+        <v>-5.3618423648515323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>4</v>
+      </c>
+      <c r="B31" s="16">
+        <f t="shared" si="5"/>
+        <v>0.76864885676094941</v>
+      </c>
+      <c r="C31" s="17">
+        <f t="shared" si="6"/>
+        <v>-2.7851383796193918E-9</v>
+      </c>
+      <c r="F31" s="10">
+        <v>7</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="4"/>
+        <v>-6.5242281618472484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>5</v>
+      </c>
+      <c r="B32" s="10">
+        <f t="shared" si="5"/>
+        <v>0.76864885676094941</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>8</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="4"/>
+        <v>-7.6919282576369552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>6</v>
+      </c>
+      <c r="B33" s="10">
+        <f t="shared" si="5"/>
+        <v>0.76864885676094941</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>9</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="4"/>
+        <v>-8.8588799919401335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>7</v>
+      </c>
+      <c r="B34" s="10">
+        <f t="shared" si="5"/>
+        <v>0.76864885676094941</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="4"/>
+        <v>-10.020683531529583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>8</v>
+      </c>
+      <c r="B35" s="10">
+        <f t="shared" si="5"/>
+        <v>0.76864885676094941</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>9</v>
+      </c>
+      <c r="B36" s="10">
+        <f t="shared" si="5"/>
+        <v>0.76864885676094941</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>10</v>
+      </c>
+      <c r="B37" s="10">
+        <f t="shared" si="5"/>
+        <v>0.76864885676094941</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Metodos numericos/parcial2/Newton Raphson.xlsx
+++ b/Metodos numericos/parcial2/Newton Raphson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Desktop\Sem4\Sem4ULSA\Metodos numericos\parcial2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA470722-AE46-4A70-8189-D0ECA6D3690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2235F9CD-5F40-40A0-ADC3-3536F1066C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{721BABC6-5491-46A4-B4BA-3C4F68E5E618}"/>
   </bookViews>
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -212,14 +212,21 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,8 +845,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2658,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78077EB7-1996-48CF-939C-69F1030DF3FF}">
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,272 +2938,325 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="4">
         <f>SIN(SQRT(B21))-B21</f>
         <v>-0.1585290151921035</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="4">
         <f>-(SIN(SQRT(B21))/4*B21)-(COS(SQRT(B21))/(4*(B21^1.5)))</f>
         <v>-0.34544332266900907</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="4">
         <f>A24*B24</f>
         <v>5.4762789747406046E-2</v>
       </c>
-      <c r="F24" s="10">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="4">
         <v>0</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="4">
         <f>SIN(SQRT(F24))-F24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="10">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="4">
         <f t="shared" ref="G25:G34" si="4">SIN(SQRT(F25))-F25</f>
         <v>-0.1585290151921035</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="10">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="4">
         <f t="shared" si="4"/>
         <v>-1.0122340540072643</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="4">
         <v>0</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="F27" s="10">
+      <c r="C27" s="4"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="4">
         <v>3</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="4">
         <f t="shared" si="4"/>
         <v>-2.0129733550096462</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="4">
         <v>1</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="4">
         <f>B27-(((SIN(SQRT(B27))-B27)/((COS(SQRT(B27)))/(2*(SQRT(B27)))-1)))</f>
         <v>0.78279199065750804</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="5">
         <f>(B28-B27)/B28</f>
         <v>-0.27747857915619134</v>
       </c>
-      <c r="F28" s="10">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="4">
         <v>4</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="4">
         <f t="shared" si="4"/>
         <v>-3.0907025731743181</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="4">
         <v>2</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="4">
         <f t="shared" ref="B29:B37" si="5">B28-(((SIN(SQRT(B28))-B28)/((COS(SQRT(B28)))/(2*(SQRT(B28)))-1)))</f>
         <v>0.76872356807973075</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="5">
         <f t="shared" ref="C29:C37" si="6">(B29-B28)/B29</f>
         <v>-1.8301016336626928E-2</v>
       </c>
-      <c r="F29" s="10">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="4">
         <f t="shared" si="4"/>
         <v>-4.2132508684527856</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="4">
         <v>3</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="4">
         <f t="shared" si="5"/>
         <v>0.76864885890174284</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="5">
         <f t="shared" si="6"/>
         <v>-9.7195458137612977E-5</v>
       </c>
-      <c r="F30" s="10">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="4">
         <v>6</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="4">
         <f t="shared" si="4"/>
         <v>-5.3618423648515323</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="8">
         <v>4</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="8">
         <f t="shared" si="5"/>
         <v>0.76864885676094941</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="9">
         <f t="shared" si="6"/>
         <v>-2.7851383796193918E-9</v>
       </c>
-      <c r="F31" s="10">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="4">
         <v>7</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="4">
         <f t="shared" si="4"/>
         <v>-6.5242281618472484</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="4">
         <v>5</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="4">
         <f t="shared" si="5"/>
         <v>0.76864885676094941</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F32" s="10">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="4">
         <v>8</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="4">
         <f t="shared" si="4"/>
         <v>-7.6919282576369552</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="4">
         <v>6</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="4">
         <f t="shared" si="5"/>
         <v>0.76864885676094941</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F33" s="10">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="4">
         <v>9</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="4">
         <f t="shared" si="4"/>
         <v>-8.8588799919401335</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="4">
         <v>7</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="4">
         <f t="shared" si="5"/>
         <v>0.76864885676094941</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F34" s="10">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="4">
         <v>10</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="4">
         <f t="shared" si="4"/>
         <v>-10.020683531529583</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="4">
         <v>8</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="4">
         <f t="shared" si="5"/>
         <v>0.76864885676094941</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="4">
         <v>9</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="4">
         <f t="shared" si="5"/>
         <v>0.76864885676094941</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="4">
         <v>10</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="4">
         <f t="shared" si="5"/>
         <v>0.76864885676094941</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
